--- a/data/demanda_ciudades.xlsx
+++ b/data/demanda_ciudades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/Enex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4948F7B-4898-4FB2-8A3E-C7999DF01164}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58AE4100-4DB9-4BD2-B732-8BBCBD2B62BE}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{92FB5ED2-96E6-4C9D-AF7F-537DFC1E41BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{92FB5ED2-96E6-4C9D-AF7F-537DFC1E41BB}"/>
   </bookViews>
   <sheets>
     <sheet name="demanda" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,18 +183,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,23 +532,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6603C705-1721-49C8-8929-34C0B9943D88}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.73046875" customWidth="1"/>
+    <col min="10" max="10" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,350 +561,450 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
         <v>11</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>1</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>3</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>1</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>4</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>11</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>10</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>58</v>
       </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C32" xr:uid="{9327D5B0-898C-48F5-BFE6-B19CC882251E}">

--- a/data/demanda_ciudades.xlsx
+++ b/data/demanda_ciudades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58AE4100-4DB9-4BD2-B732-8BBCBD2B62BE}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58396A00-5235-471A-9069-2E73B860596B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{92FB5ED2-96E6-4C9D-AF7F-537DFC1E41BB}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{92FB5ED2-96E6-4C9D-AF7F-537DFC1E41BB}"/>
   </bookViews>
   <sheets>
     <sheet name="demanda" sheetId="1" r:id="rId1"/>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6603C705-1721-49C8-8929-34C0B9943D88}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -960,7 +960,10 @@
       <c r="C29" s="5">
         <v>90</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5">
+        <f>C29*2+B29</f>
+        <v>191</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>

--- a/data/demanda_ciudades.xlsx
+++ b/data/demanda_ciudades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58396A00-5235-471A-9069-2E73B860596B}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D54E3727-4324-4768-9022-7200784AB3C7}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{92FB5ED2-96E6-4C9D-AF7F-537DFC1E41BB}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6603C705-1721-49C8-8929-34C0B9943D88}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -960,10 +960,7 @@
       <c r="C29" s="5">
         <v>90</v>
       </c>
-      <c r="D29" s="5">
-        <f>C29*2+B29</f>
-        <v>191</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
@@ -1010,11 +1007,6 @@
       <c r="F32" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C32" xr:uid="{9327D5B0-898C-48F5-BFE6-B19CC882251E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
-      <sortCondition ref="A1:A32"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/demanda_ciudades.xlsx
+++ b/data/demanda_ciudades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D54E3727-4324-4768-9022-7200784AB3C7}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB49434-C4BD-474F-8D0E-B7E082290C12}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{92FB5ED2-96E6-4C9D-AF7F-537DFC1E41BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{92FB5ED2-96E6-4C9D-AF7F-537DFC1E41BB}"/>
   </bookViews>
   <sheets>
     <sheet name="demanda" sheetId="1" r:id="rId1"/>
@@ -213,6 +213,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,7 +539,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -629,10 +633,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
         <v>2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>

--- a/data/demanda_ciudades.xlsx
+++ b/data/demanda_ciudades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB49434-C4BD-474F-8D0E-B7E082290C12}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1211B6CB-694C-48A4-98A6-BFDCC2ACFFC0}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{92FB5ED2-96E6-4C9D-AF7F-537DFC1E41BB}"/>
   </bookViews>
@@ -147,8 +147,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -187,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -197,6 +198,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -536,26 +538,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6603C705-1721-49C8-8929-34C0B9943D88}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.73046875" customWidth="1"/>
-    <col min="10" max="10" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="12.73046875" customWidth="1"/>
+    <col min="13" max="13" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,9 +567,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -577,14 +579,17 @@
       <c r="C2" s="5">
         <v>11</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -594,12 +599,15 @@
       <c r="C3" s="5">
         <v>6</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -609,12 +617,15 @@
       <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -624,11 +635,14 @@
       <c r="C5" s="5">
         <v>11</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -638,11 +652,14 @@
       <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -652,12 +669,15 @@
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -667,12 +687,15 @@
       <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -682,13 +705,16 @@
       <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -698,11 +724,14 @@
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -712,11 +741,14 @@
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -726,11 +758,14 @@
       <c r="C12" s="5">
         <v>31</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -740,11 +775,14 @@
       <c r="C13" s="5">
         <v>16</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -754,11 +792,14 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -768,11 +809,14 @@
       <c r="C15" s="5">
         <v>0</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -782,11 +826,14 @@
       <c r="C16" s="5">
         <v>49</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -796,11 +843,14 @@
       <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -810,11 +860,14 @@
       <c r="C18" s="5">
         <v>0</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -824,11 +877,14 @@
       <c r="C19" s="5">
         <v>0</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -838,11 +894,14 @@
       <c r="C20" s="5">
         <v>4</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -852,11 +911,14 @@
       <c r="C21" s="5">
         <v>29</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -866,11 +928,14 @@
       <c r="C22" s="5">
         <v>0</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -880,11 +945,14 @@
       <c r="C23" s="5">
         <v>0</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -894,11 +962,14 @@
       <c r="C24" s="5">
         <v>12</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -908,11 +979,14 @@
       <c r="C25" s="5">
         <v>0</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -922,11 +996,14 @@
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -936,11 +1013,14 @@
       <c r="C27" s="5">
         <v>17</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -950,11 +1030,15 @@
       <c r="C28" s="5">
         <v>33</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -964,11 +1048,15 @@
       <c r="C29" s="5">
         <v>90</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -978,11 +1066,14 @@
       <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -992,11 +1083,14 @@
       <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -1006,9 +1100,12 @@
       <c r="C32" s="5">
         <v>58</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/demanda_ciudades.xlsx
+++ b/data/demanda_ciudades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05FB95E-F3BF-4166-A648-79BE22C205A5}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4841BED0-2A38-44CF-BFCD-141317D07CD9}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{92FB5ED2-96E6-4C9D-AF7F-537DFC1E41BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{92FB5ED2-96E6-4C9D-AF7F-537DFC1E41BB}"/>
   </bookViews>
   <sheets>
     <sheet name="demanda" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Santiago</t>
   </si>
   <si>
-    <t>Valparaiso</t>
-  </si>
-  <si>
     <t>Puerto Montt</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Temuco</t>
   </si>
   <si>
-    <t>Chiloe</t>
-  </si>
-  <si>
     <t>Curanilahue</t>
   </si>
   <si>
@@ -92,7 +86,13 @@
     <t>Rancagua</t>
   </si>
   <si>
-    <t>Curico</t>
+    <t>Chiloé</t>
+  </si>
+  <si>
+    <t>Curicé</t>
+  </si>
+  <si>
+    <t>Valparaéso</t>
   </si>
 </sst>
 </file>
@@ -175,10 +175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,7 +497,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -531,7 +527,7 @@
     </row>
     <row r="2" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>13</v>
@@ -550,7 +546,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8">
         <v>12</v>
@@ -567,7 +563,7 @@
     </row>
     <row r="4" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8">
         <v>6</v>
@@ -584,7 +580,7 @@
     </row>
     <row r="5" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8">
         <v>8</v>
@@ -600,7 +596,7 @@
     </row>
     <row r="6" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8">
         <v>4</v>
@@ -616,7 +612,7 @@
     </row>
     <row r="7" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8">
         <v>6</v>
@@ -633,7 +629,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8">
         <v>5</v>
@@ -650,7 +646,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8">
         <v>5</v>
@@ -684,7 +680,7 @@
     </row>
     <row r="11" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="8">
         <v>5</v>
@@ -700,7 +696,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8">
         <v>14</v>
@@ -716,7 +712,7 @@
     </row>
     <row r="13" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8">
         <v>5</v>
@@ -732,7 +728,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8">
         <v>6</v>
@@ -748,7 +744,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8">
         <v>4</v>
@@ -764,7 +760,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8">
         <v>9</v>

--- a/data/demanda_ciudades.xlsx
+++ b/data/demanda_ciudades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4841BED0-2A38-44CF-BFCD-141317D07CD9}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{44653EA8-1BA7-4C61-B15A-80CB70507C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED2BB4E5-067D-4E17-AB96-D9236D57EF1D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{92FB5ED2-96E6-4C9D-AF7F-537DFC1E41BB}"/>
   </bookViews>
@@ -89,10 +89,10 @@
     <t>Chiloé</t>
   </si>
   <si>
-    <t>Curicé</t>
-  </si>
-  <si>
-    <t>Valparaéso</t>
+    <t>Curicó</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.4" customHeight="1" x14ac:dyDescent="0.45"/>
